--- a/Behaviour/bcio_behaviour_rels.xlsx
+++ b/Behaviour/bcio_behaviour_rels.xlsx
@@ -487,7 +487,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>abstinence from a behaviour</t>
+          <t>abstinence from a behaviour1</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">

--- a/Behaviour/bcio_behaviour_rels.xlsx
+++ b/Behaviour/bcio_behaviour_rels.xlsx
@@ -487,7 +487,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>abstinence from a behaviour1</t>
+          <t>abstinence from a behaviour</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
